--- a/Assets/Data/Table/Enum/Move.xlsx
+++ b/Assets/Data/Table/Enum/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D7A01-64BF-49C9-A54F-5623FC647486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249BE73-9169-4D45-8C5D-F770CDAE7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumName" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>#기타 비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,11 +49,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EnumGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveCriteriaType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 없이 속도에 의해 움직임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지가 있어 시간과 위치에 따라 움직임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetPosition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간, 속도와 관계 없이 해당 위치로 Set</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +119,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,9 +180,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,39 +468,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8FFD1-BC87-4624-BD96-AC6A96A8C717}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="1"/>
+    <col min="1" max="2" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
